--- a/Figs_4_5_ELP_estimation_error.xlsx
+++ b/Figs_4_5_ELP_estimation_error.xlsx
@@ -69,11 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +375,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,8 +409,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>-52.193363636364502</v>
+      <c r="A2">
+        <v>52.193363636364502</v>
       </c>
       <c r="B2">
         <v>-501.64137172685798</v>
@@ -433,7 +430,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>43.952613805799103</v>
+        <v>-43.952613805799103</v>
       </c>
       <c r="B3">
         <v>-274.27458755935902</v>
@@ -453,7 +450,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>102.10437037037001</v>
+        <v>-102.10437037037001</v>
       </c>
       <c r="B4">
         <v>-282.98643091779502</v>
@@ -473,7 +470,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.1482636363641099</v>
+        <v>-4.1482636363641099</v>
       </c>
       <c r="B5">
         <v>-194.367704375145</v>
@@ -493,7 +490,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>72.724035490605104</v>
+        <v>-72.724035490605104</v>
       </c>
       <c r="B6">
         <v>30.818690390075801</v>
@@ -513,7 +510,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-106.901136842105</v>
+        <v>106.901136842105</v>
       </c>
       <c r="B7">
         <v>102.797391963069</v>
@@ -533,7 +530,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>99.584880399273601</v>
+        <v>-99.584880399273601</v>
       </c>
       <c r="B8">
         <v>-311.75393457761999</v>
@@ -553,7 +550,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.2421808183019696</v>
+        <v>-6.2421808183019696</v>
       </c>
       <c r="B9">
         <v>-249.087095546044</v>
@@ -573,7 +570,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>60.831927938711097</v>
+        <v>-60.831927938711097</v>
       </c>
       <c r="B10">
         <v>48.341936165005698</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-5.8665659319601096</v>
+        <v>5.8665659319601096</v>
       </c>
       <c r="B11">
         <v>125.262167633834</v>
@@ -613,7 +610,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-80.300871510516501</v>
+        <v>80.300871510516501</v>
       </c>
       <c r="B12">
         <v>-307.83872290283398</v>
@@ -633,7 +630,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-144.73254351464499</v>
+        <v>144.73254351464499</v>
       </c>
       <c r="B13">
         <v>-429.96859910077598</v>
